--- a/loaded_influencer_data/janaedanyiel/janaedanyiel_video.xlsx
+++ b/loaded_influencer_data/janaedanyiel/janaedanyiel_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,45 +506,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7403100464197258527</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7370134287796194603</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310500</v>
+        <v>3900000</v>
       </c>
       <c r="C2" t="n">
-        <v>15900</v>
+        <v>351900</v>
       </c>
       <c r="D2" t="n">
-        <v>206</v>
+        <v>738</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4190</v>
+        <v>19700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>나는 이것을 풀지 않을 까봐 두려웠지만 그것은 ngl을 먹었다@OQHAIR #vpartwig #oqhair</t>
+          <t>SURPRISE IM BALD 👩🏽‍🦲 #bigchop #twa #type4hair #bigchopnaturalhair</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.187117552334944</v>
+        <v>9.042</v>
       </c>
       <c r="I2" t="n">
-        <v>5.120772946859904</v>
+        <v>9.023076923076923</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06634460547504026</v>
+        <v>0.01892307692307692</v>
       </c>
       <c r="L2" t="n">
-        <v>1.349436392914654</v>
+        <v>0.5051282051282051</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -553,50 +553,50 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-8-15</t>
+          <t>2024-5-18</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7429461718167735595</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1600000</v>
+        <v>1700000</v>
       </c>
       <c r="C3" t="n">
-        <v>66700</v>
+        <v>67100</v>
       </c>
       <c r="D3" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4399</v>
+        <v>4423</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>당신이 여분이 될 수 있는데 왜 기본 가발을 가지고 있습니까? 🤭@Asteria Hair #asteriahair #prestyledwig</t>
+          <t>why have a basic wig when you can be extra 🤭 @Asteria Hair #asteriahair #prestyledwig #prebraidedwigs</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.1796875</v>
+        <v>3.957411764705882</v>
       </c>
       <c r="I3" t="n">
-        <v>4.16875</v>
+        <v>3.947058823529412</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0109375</v>
+        <v>0.01035294117647059</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2749375</v>
+        <v>0.2601764705882353</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7419435649771572522</t>
         </is>
@@ -619,10 +619,10 @@
         <v>3200000</v>
       </c>
       <c r="C4" t="n">
-        <v>255700</v>
+        <v>255800</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -632,20 +632,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>나는 5분만에 브래지어를 얻었다!! 🤭@YWigs Official #braidband #braidedwig #ywigs #bohobraids</t>
+          <t>why have a basic wig when you can be extra 🤭 @Asteria Hair #asteriahair #prestyledwig #prebraidedwigs</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.012593749999999</v>
+        <v>8.015625</v>
       </c>
       <c r="I4" t="n">
-        <v>7.990625</v>
+        <v>7.993749999999999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02196875</v>
+        <v>0.021875</v>
       </c>
       <c r="L4" t="n">
         <v>0.509375</v>
@@ -662,566 +662,566 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7489222953260010798</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>778</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Here’s how I slay my wig effortlessly! @nadula hair always come through for a flawless look 😍 #nadulahair</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7.069408740359898</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.169665809768637</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8997429305912596</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6426735218508998</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7488847029087735086</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>872</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>This yaki straight wig is giving natural, 90’s FIONEEE! @nadula hair #nadulahair #nadulawig #springtok</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.848623853211009</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.389908256880735</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7488460444735114539</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17700</v>
+      </c>
+      <c r="C7" t="n">
+        <v>419</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>im not complaining… but my leaveout is STRUGGLINGG 🥲 #iseehair #curlyhalfwig #halfwig #gluelesswig</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.395480225988701</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.367231638418079</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02824858757062147</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1073446327683616</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7488120338585537838</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C8" t="n">
+        <v>72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>The easiest curly hair install EVER! 😍✨ No glue, just flawless curls! #iseehair #curlyhalfwig #halfwig #gluelesswig</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4.561611374407583</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.265402843601896</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2962085308056872</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2369668246445498</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7487713995902733614</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>467</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>82</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Can you tell its a wig?? This 360 lace wig with 4C edges is TOO real 😍🔥 @Ashimary Hair Beauty</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.063694267515924</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.974522292993631</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.08917197452229299</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5222929936305732</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7486616652189207854</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10500</v>
-      </c>
-      <c r="C5" t="n">
-        <v>391</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B10" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2775</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>405</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>OBSESSEDDD! ive been wearing this wig for a week straight and I love ittt! 🥹🥹🥹 @Ashimary Hair Beauty</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.873483535528597</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.809358752166378</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.06412478336221837</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7019064124783362</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7486263035128991022</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>554</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>이 색이 무서웠지만 사랑에 빠졌어요! 😍@Reshinehair @Reshine Hair Store #reshinehair #blondehair</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2.527075812274368</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.346570397111913</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1805054151624549</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7485494095465516331</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>아니, 이건 확실히 좋아하는 거니까! 😍😍@Reshinehair @Reshine Hair Store #tiktokmademebuyit #reshinehair</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3.010348071495767</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.010348071495767</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1881467544684854</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7485126072246308138</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FULL VIDEO &amp; BREAKDOWN on my YT channel ‘Janae Danyiel’ Why do Black women change their hair so much? Let’s talk about it… #newhairnewme #blackwomenhairstyles</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7.881773399014778</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.699507389162561</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.182266009852217</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7484432940865195306</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2633</v>
+      </c>
+      <c r="C14" t="n">
+        <v>314</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>77</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>집착! 나는 일주일 동안 이 가발을 쓰고 있었고 나는 그것을 좋아합니다! 🥹🥹🥹@Ashimary Hair Beauty</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.876190476190476</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.723809523809524</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1523809523809524</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7486263035128991022</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>554</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>이 색이 무서웠지만 사랑에 빠졌어요! 😍@Reshinehair @Reshine Hair Store #reshinehair #blondehair</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2.527075812274368</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.346570397111913</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1805054151624549</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7485494095465516331</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1063</v>
-      </c>
-      <c r="C7" t="n">
-        <v>32</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>아니, 이건 확실히 좋아하는 거니까! 😍😍@Reshinehair @Reshine Hair Store #tiktokmademebuyit #reshinehair</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3.010348071495767</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.010348071495767</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1881467544684854</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7485126072246308138</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C8" t="n">
-        <v>68</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>FULL VIDEO &amp; BREAKDOWN on my YT channel ‘Janae Danyiel’ Why do Black women change their hair so much? Let’s talk about it… #newhairnewme #blackwomenhairstyles</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7.881773399014778</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.699507389162561</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.182266009852217</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7484432940865195306</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2633</v>
-      </c>
-      <c r="C9" t="n">
-        <v>314</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>얼굴이 비트를 유지하는 한 나는 이것들을 건너 뛰지 않는다 😗#makeuptutorial #blackgirlmakeup</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>13.14090391188758</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.92556019749335</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.215343714394227</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.924420812761109</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7483675199020338474</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3710</v>
+      </c>
+      <c r="C15" t="n">
         <v>77</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>얼굴이 비트를 유지하는 한 나는 이것들을 건너 뛰지 않는다 😗#makeuptutorial #blackgirlmakeup</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>13.14090391188758</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.92556019749335</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.215343714394227</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.924420812761109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7483675199020338474</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3710</v>
-      </c>
-      <c r="C10" t="n">
-        <v>77</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>접착제 없는 땋은 가발은 뭐라고 말합니까? ??@JALIZA Beauty #jalizabraids #gluelessbraidedwig #fulllacebraidedwig</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>2.210242587601079</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>2.075471698113208</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1347708894878706</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>0.1617250673854448</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7483273011555224878</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>1659</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>53</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>접착제 없는 땋은 가발은 뭐라고 말합니까? ??@JALIZA Beauty #jalizabraids #gluelessbraidedwig #fulllacebraidedwig</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3.676913803496082</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.194695599758891</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.482218203737191</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.2411091018685955</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7482899407135083822</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21100</v>
-      </c>
-      <c r="C12" t="n">
-        <v>747</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>70</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>나는 이것에 대해 전혀 모른다... 너희들이 어떻게 생각하는지 알 수 있게 해줘🫣 21"부터 23"까지 모든 머리에 맞는 새로운 기술 신축성 있는 레이스를 사용하여 사람 머리 컬을 가진 첫 번째 접착제 풀 레이스 boho box 브레이드 가발.</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3.611374407582938</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.540284360189574</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.07109004739336493</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.3317535545023697</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7481440620167433515</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C13" t="n">
-        <v>483</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>62</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>처음 구매하는 50 명은 10% 추가 할인을 받을 수 있습니다! 'OQHAIRSD'를 입력하십시오.</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2.96969696969697</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.927272727272727</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.3757575757575758</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7481040211921882414</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2250</v>
-      </c>
-      <c r="C14" t="n">
-        <v>203</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>86</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>올바른 브러시에 기회를 주기 위해 답장합니다!! 🫶🏽@🪷✨ #beautyblender #makeupbrushes #blackgirlmakeup</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9.866666666666667</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.022222222222222</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8444444444444443</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.822222222222222</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7480671444159040814</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3156</v>
-      </c>
-      <c r="C15" t="n">
-        <v>89</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>처음 구매하는 50명은 10% 추가 할인 "OQHAIRSD"를 받을 수 있습니다.#headbandwig #oqhair @OQHAIR</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2.915082382762991</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.820025348542459</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.09505703422053231</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.4435994930291508</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7480310075798621486</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>37200</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1194</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -1230,1734 +1230,1784 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>접착제 없는 땋은 가발은 뭐라고 말합니까? ??@JALIZA Beauty #jalizabraids #gluelessbraidedwig #fulllacebraidedwig</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3.676913803496082</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.194695599758891</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.482218203737191</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2411091018685955</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7482899407135083822</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>747</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>70</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>나는 이것에 대해 전혀 모른다... 너희들이 어떻게 생각하는지 알 수 있게 해줘🫣 21"부터 23"까지 모든 머리에 맞는 새로운 기술 신축성 있는 레이스를 사용하여 사람 머리 컬을 가진 첫 번째 접착제 풀 레이스 boho box 브레이드 가발.</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3.611374407582938</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.540284360189574</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.07109004739336493</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3317535545023697</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7481440620167433515</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>483</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>62</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>처음 구매하는 50 명은 10% 추가 할인을 받을 수 있습니다! 'OQHAIRSD'를 입력하십시오.</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2.96969696969697</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.927272727272727</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.04242424242424243</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3757575757575758</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7481040211921882414</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C19" t="n">
+        <v>203</v>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>86</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>올바른 브러시에 기회를 주기 위해 답장합니다!! 🫶🏽@🪷✨ #beautyblender #makeupbrushes #blackgirlmakeup</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9.866666666666667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.022222222222222</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8444444444444443</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.822222222222222</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7480671444159040814</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>89</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>처음 구매하는 50명은 10% 추가 할인 "OQHAIRSD"를 받을 수 있습니다.#headbandwig #oqhair @OQHAIR</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2.915082382762991</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.820025348542459</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.09505703422053231</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4435994930291508</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@janaedanyiel/video/7480310075798621486</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>86</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>처음 구매하는 50 명은 10% 더 할인됩니다! "OQHAIRSD"#headbandwig #oqhair</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>3.231182795698925</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>3.209677419354839</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.02150537634408602</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.2311827956989247</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7479603400771128622</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>60400</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>2375</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>19</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>210</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>V 부품에 관해서는 재생하지 않습니다!@VSHOW HAIR #vshowhair #naturalhair #vpartwig #4chair #curls</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>3.963576158940397</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>3.932119205298013</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.03145695364238411</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>0.347682119205298</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7479230402671037738</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B23" t="n">
         <v>3380</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C23" t="n">
         <v>2375</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>210</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>V 부품에 관해서는 재생하지 않습니다!@VSHOW HAIR #vshowhair #naturalhair #vpartwig #4chair #curls</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>70.82840236686391</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>70.26627218934911</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.5621301775147929</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L23" t="n">
         <v>6.21301775147929</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7478833153356909866</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>3634</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>444</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>34</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>285</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>답장 나는 곧 더 많은 메이크업 튜트와 트릭을 🫶🏽 5everrr를 얻었다 🥰@bkgeeslay #blackgirlmakeup #makeuptutorial</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>13.15354980737479</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>12.21794166208035</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.9356081452944414</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>7.842597688497524</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7478479349553843498</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>24700</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>545</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>94</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>가발 어디? ?! 🙂↔️🤭최고의 V 파트 가발을 손 아래로!!!@VSHOW HAIR @vshowhairshop #vpartwig #bigchop</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>2.234817813765182</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>2.206477732793522</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.02834008097165992</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.3805668016194332</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7477723471095565611</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>16000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>1485</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>121</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>90</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>나는 너희들 중 아무도 없는 쇠고기를 원하지 않는다 🥲#makeuptrends #blackgirlmakeup #hate</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>10.0375</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>9.28125</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.75625</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>0.5625</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7476614531200961835</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>15900</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>1333</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>31</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>57</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>내 유튜브에 전체 비디오! 네, 마이크로록 익스텐션을 설치하는 데 4일을 보냈고 네, 꺼내는 데 1시간을 보냈습니다. 😂🤦🏾‍♀️</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>8.578616352201259</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>8.383647798742139</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.1949685534591195</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.3584905660377358</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7476209879129066794</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>519500</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>1333</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>31</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>57</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>내 유튜브에 전체 비디오! 네, 마이크로록 익스텐션을 설치하는 데 4일을 보냈고 네, 꺼내는 데 1시간을 보냈습니다. 😂🤦🏾‍♀️</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>0.2625601539942252</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>0.2565928777670837</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.005967276227141482</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L28" t="n">
         <v>0.0109720885466795</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7473672008820182314</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>3610</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>76800</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D29" t="n">
         <v>741</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>22800</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>날 욕하지 마 그냥 내 말을 들어😂#hearmeout #makeuptutorial #blackgirlmakeup</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>2147.950138504155</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>2127.423822714682</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>20.52631578947368</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L29" t="n">
         <v>631.578947368421</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7473620477643083050</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>3149</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>152</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>26</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>10</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>머리띠는 무엇입니까? !? 👀😂@Luvmehair #prestyledwig #gluelesswig #luvmehair</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>5.652588123213718</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>4.826929183867894</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.825658939345824</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.3175611305176246</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7470693490809343278</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>3990</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>113</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>8</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>17</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>땋은 머리가 미쳐@Luvmehair #prestyledwig #gluelesswig #luvmehair</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>3.032581453634085</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>2.832080200501253</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.2005012531328321</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.4260651629072682</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7461044993604504874</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>64800</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>268</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>52</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>26</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>여자가 되는 것 &gt;#makeup #makeuplover #blackgirlmakeup</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>0.4938271604938271</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>0.4135802469135803</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.08024691358024691</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.04012345679012345</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7451788964203367726</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>15000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>7808</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>205</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>237</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>2025 신부가 일어나세요! !! 여러분은 저를 브라운 부인이라고 부르기 시작할 수 있습니다! 마지막 모습을 보기 위해 끝까지 보세요, 저는 말 그대로 공주처럼 느껴졌습니다. 🥹</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>53.42</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>52.05333333333333</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.366666666666667</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>1.58</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7451759805469003054</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>63500</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>722</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>22</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>52</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Replying to @___queenofthefall TURN THE WIGS AROUND! 🤣😩 @karlami hair #karlamihair #karlamidoublewearwig #karlamiwig #dreamgirls</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>1.171653543307086</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>1.137007874015748</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.03464566929133858</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>0.08188976377952756</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7450319710287187246</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>5411</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>3319</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>39</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>77</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>답장은 다른 색을 시도해 봅시다. .? 🤔@word_tabs @karlami hair #karlamihair #karlamidoublewearwig</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>62.05876917390501</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>61.33801515431529</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.7207540195897246</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>1.423027166882277</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7450282440804797742</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>10300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>123</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D36" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>13</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>I was hestitant at first yall but… WHEW! @WigFever Hair #wigfever #waterwavewig #wigreview</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>1.310679611650486</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>1.194174757281553</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.116504854368932</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L36" t="n">
         <v>0.1262135922330097</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7449915813911383339</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B37" t="n">
         <v>10500</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C37" t="n">
         <v>287</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D37" t="n">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>43</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>이 가발은 정말 폭탄이야!@WigFever Hair #wigfever #waterwavewig #wigreview</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H37" t="n">
         <v>2.847619047619048</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I37" t="n">
         <v>2.733333333333333</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1142857142857143</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L37" t="n">
         <v>0.4095238095238095</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7449587063285992750</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B38" t="n">
         <v>6873</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C38" t="n">
         <v>318</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>12</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>123</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>이에 대한 답변은 짧은 머리로 v 부분 가발의 흔적을 덮는 방법입니다!@udoADHD #vpartwig #iseehair #bigchop</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H38" t="n">
         <v>4.801396769969446</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I38" t="n">
         <v>4.626800523788739</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.1745962461807071</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L38" t="n">
         <v>1.789611523352248</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7449143525083598123</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B39" t="n">
         <v>3498</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>196</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D39" t="n">
         <v>15</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>34</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>내가 입었던 가장 혁신적인 v-part!#vpartwig #kinkycurlywig #type4hair</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H39" t="n">
         <v>6.032018296169239</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I39" t="n">
         <v>5.603201829616924</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.4288164665523156</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L39" t="n">
         <v>0.9719839908519153</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7448829845095599406</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B40" t="n">
         <v>5494</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>163</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
         <v>12</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>누가 이런 가발을 만드나요?? 아무도@alipearlhair_official #alipearlhair #oceanwavehairstyle #wigreview</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H40" t="n">
         <v>3.185293046960321</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I40" t="n">
         <v>2.966872952311613</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.2184200946487077</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L40" t="n">
         <v>0.3094284674190025</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7447703014539889962</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B41" t="n">
         <v>3216</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C41" t="n">
         <v>209</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D41" t="n">
         <v>27</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>22</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>이 접착제 없는 가발을 써보기 전까지는 믿지 않았어요! 😳🥰@alipearlhair_official #alipearlhair</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H41" t="n">
         <v>7.338308457711443</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I41" t="n">
         <v>6.498756218905473</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.8395522388059702</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L41" t="n">
         <v>0.6840796019900498</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7447346305426279723</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B42" t="n">
         <v>3625</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C42" t="n">
         <v>63</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>7</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>게임 체인저입니다!!@ChicrosaUSA #jerrycurlwig #chicrosa #scalpwigs #chicrosahair #gluelesswig</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H42" t="n">
         <v>1.875862068965517</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I42" t="n">
         <v>1.737931034482759</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1379310344827586</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L42" t="n">
         <v>0.1931034482758621</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7446983711633034542</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B43" t="n">
         <v>2871</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C43" t="n">
         <v>66</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D43" t="n">
         <v>10</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>14</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>제리 컬이 다시 유행하고 있습니까? ?? 🤣@ChicrosaUSA #jerrycurlwig #jerrycurl #chicrosa #gluelesswig</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H43" t="n">
         <v>2.647161267850923</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I43" t="n">
         <v>2.298850574712644</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.3483106931382793</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L43" t="n">
         <v>0.487634970393591</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7446951141490855210</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B44" t="n">
         <v>19200</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C44" t="n">
         <v>66</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>6</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>이 접착제 없는 가발의 빠른 스타일@SIMIDOLA_HAIR #straightwig #gluelesswig #simidolahair #wigreview</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H44" t="n">
         <v>0.3802083333333334</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I44" t="n">
         <v>0.34375</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.03645833333333334</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L44" t="n">
         <v>0.03125</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7446592351184751914</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B45" t="n">
         <v>2050</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C45" t="n">
         <v>931</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D45" t="n">
         <v>13</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>103</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>좋아, 여자들은 거짓말하지 않았어!!@SIMIDOLA_HAIR #straightwig #gluelesswig #simidolahair #wigreview</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H45" t="n">
         <v>46.04878048780488</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I45" t="n">
         <v>45.41463414634146</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.6341463414634146</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L45" t="n">
         <v>5.024390243902439</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7446553820378811691</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B46" t="n">
         <v>5089</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>59</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D46" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>지팡이 컬을 해보자!@UNice Hair #kinkystraight #yakistraight #unice</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>1.218314010611122</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>1.159363332678326</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.05895067793279622</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L46" t="n">
         <v>0.01965022597759874</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/photo/7446237752917642539</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B47" t="n">
         <v>2540</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C47" t="n">
         <v>97</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>18</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>지팡이 컬을 해보자!@UNice Hair #kinkystraight #yakistraight #unice</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H47" t="n">
         <v>4.173228346456693</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I47" t="n">
         <v>3.818897637795276</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.3543307086614173</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L47" t="n">
         <v>0.7086614173228346</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7444729402207833390</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B48" t="n">
         <v>48700</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>103</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D48" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>나는 내 아기 머리를 하는 것을 좋아하고 이 가장자리 제어는 결코 나를 실패하지 않습니다!@Lela by Ana Beauty</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H48" t="n">
         <v>0.2217659137577002</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I48" t="n">
         <v>0.2114989733059548</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.01026694045174538</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L48" t="n">
         <v>0.004106776180698151</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-9</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7443995019155017006</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B49" t="n">
         <v>4264</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>939</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D49" t="n">
         <v>31</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>171</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>스킨 레이스가 달린 저렴한 가발?! 오 그래!@Chicrosa.wig #chicrosa #jerrycurlywigs #bobwig</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H49" t="n">
         <v>22.74859287054409</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I49" t="n">
         <v>22.02157598499062</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.727016885553471</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L49" t="n">
         <v>4.01031894934334</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7443580338028170538</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B50" t="n">
         <v>6083</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C50" t="n">
         <v>179</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D50" t="n">
         <v>19</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>23</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>let’s tame these edges using @Lela by Ana Beauty edge control! #lelabeauty #lelabyanabeauty #edges #babyhairtutorial #babyhair #edgesonfleek #type4hair #protectivestyles #naturalhair</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H50" t="n">
         <v>3.25497287522604</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I50" t="n">
         <v>2.942626993259905</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.3123458819661351</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L50" t="n">
         <v>0.3781029097484794</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@janaedanyiel/video/7443222536667630894</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B51" t="n">
         <v>126500</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C51" t="n">
         <v>72</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D51" t="n">
         <v>6</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>7</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>do yall see how juicy this texture is?! 🤨🤨🤨 @VSHOW HAIR #vpartwig #type4hair #blackfriday #sale</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H51" t="n">
         <v>0.0616600790513834</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I51" t="n">
         <v>0.05691699604743083</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.004743083003952569</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L51" t="n">
         <v>0.005533596837944664</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7442109788391247150</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>181800</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D47" t="n">
-        <v>45</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>383</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>흑인 여성들에게, 우리는 항상 vpart 가발을 손에 들고 있어야 합니다!@VSHOW HAIR #vpartwig #type4hair</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1.123762376237624</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.099009900990099</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.02475247524752475</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.2106710671067107</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2024-12-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7441777597836512554</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2844</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4786</v>
-      </c>
-      <c r="D48" t="n">
-        <v>87</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>590</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>블랙 프라이데이 세일 경고! !! 이 vpart는 내가 가장 좋아하는 것이고 나는 그것을 좋은 가격으로 얻었습니다! 지금 쇼핑하세요!</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>171.3431786216596</v>
-      </c>
-      <c r="I48" t="n">
-        <v>168.2841068917018</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.059071729957806</v>
-      </c>
-      <c r="L48" t="n">
-        <v>20.74542897327708</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-11-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7441741385247493419</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3364</v>
-      </c>
-      <c r="C49" t="n">
-        <v>108</v>
-      </c>
-      <c r="D49" t="n">
-        <v>5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>나는 360도 가발을 가지고 놀았다.@Ashimary Hair Beauty #360wig #ashimaryhair #highlightwig</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3.359096313912009</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.210463733650416</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.1486325802615933</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.3269916765755053</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@janaedanyiel/video/7441362392086334766</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>17200</v>
-      </c>
-      <c r="C50" t="n">
-        <v>75</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>이 360 (GLUELESS) 가발을 무서워하지 않는 것이 좋습니다! 🤭@Ashimary Hair Beauty #360wig #ashimaryhair</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>0.4593023255813953</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.436046511627907</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.05813953488372093</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-27</t>
         </is>
       </c>
     </row>
